--- a/mallar/import/Sm2019/extraktion-v1-sm2019.xlsx
+++ b/mallar/import/Sm2019/extraktion-v1-sm2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\privat\voltige\jälla2019-04-07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\import\Sm2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055C453-971A-4063-ACA8-5DF1C578613D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D46F2-40DA-47E7-9E28-8DA1824D4832}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="9405" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="linförare" sheetId="3" r:id="rId3"/>
     <sheet name="hästar" sheetId="4" r:id="rId4"/>
     <sheet name="klubbar" sheetId="5" r:id="rId5"/>
-    <sheet name="voligörer" sheetId="6" r:id="rId6"/>
+    <sheet name="voltigörer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="183">
   <si>
     <t>Christina Müller</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>Mellanklass, lag Nationell</t>
+  </si>
+  <si>
+    <t>Team Cassiopeia</t>
+  </si>
+  <si>
+    <t>Team Luna</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -929,30 +935,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E699B4-799D-435C-8FEE-CA3AE7CBAE4C}">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.73046875" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.3984375" customWidth="1"/>
+    <col min="15" max="15" width="14.73046875" customWidth="1"/>
+    <col min="16" max="16" width="15.59765625" customWidth="1"/>
+    <col min="17" max="17" width="16.1328125" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>425383</v>
       </c>
@@ -1019,8 +1025,11 @@
       <c r="V1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>425383</v>
       </c>
@@ -1087,8 +1096,11 @@
       <c r="V2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>425384</v>
       </c>
@@ -1155,8 +1167,11 @@
       <c r="V3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>425384</v>
       </c>
@@ -1224,7 +1239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>425384</v>
       </c>
@@ -1291,8 +1306,11 @@
       <c r="V5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>425385</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>425385</v>
       </c>
@@ -1365,7 +1383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>425385</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>425385</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>425385</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>425385</v>
       </c>
@@ -1508,7 +1526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>425386</v>
       </c>
@@ -1543,7 +1561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>425386</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>425386</v>
       </c>
@@ -1616,7 +1634,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>425386</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>425386</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>425386</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>425386</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>425387</v>
       </c>
@@ -1797,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>425387</v>
       </c>
@@ -1832,7 +1850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>425387</v>
       </c>
@@ -1867,7 +1885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>425387</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>425387</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>425387</v>
       </c>
@@ -1975,7 +1993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>425387</v>
       </c>
@@ -2013,7 +2031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>425387</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>425387</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>425387</v>
       </c>
@@ -2124,7 +2142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>425387</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>425387</v>
       </c>
@@ -2197,7 +2215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>425387</v>
       </c>
@@ -2232,7 +2250,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>425387</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>425387</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>425387</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>425387</v>
       </c>
@@ -2378,7 +2396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>425387</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>425387</v>
       </c>
@@ -2451,7 +2469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>425387</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>425387</v>
       </c>
@@ -2521,7 +2539,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>425387</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>425387</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>425387</v>
       </c>
@@ -2632,7 +2650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>425387</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>425387</v>
       </c>
@@ -2702,7 +2720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>425387</v>
       </c>
@@ -2740,7 +2758,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>425388</v>
       </c>
@@ -2775,7 +2793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>425388</v>
       </c>
@@ -2813,7 +2831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>425388</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>425388</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>425388</v>
       </c>
@@ -2927,7 +2945,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>425388</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>425388</v>
       </c>
@@ -3000,7 +3018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>425388</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>425388</v>
       </c>
@@ -3070,7 +3088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>425388</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>425388</v>
       </c>
@@ -3140,7 +3158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>425388</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>425388</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>425388</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>425388</v>
       </c>
@@ -3286,7 +3304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>425388</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>425388</v>
       </c>
@@ -3362,7 +3380,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>425388</v>
       </c>
@@ -3397,7 +3415,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>425393</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>425394</v>
       </c>
@@ -3483,12 +3501,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>425383</v>
       </c>
@@ -3499,7 +3517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>425384</v>
       </c>
@@ -3510,7 +3528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>425385</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>425386</v>
       </c>
@@ -3532,7 +3550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>425387</v>
       </c>
@@ -3543,7 +3561,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>425388</v>
       </c>
@@ -3554,7 +3572,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>425389</v>
       </c>
@@ -3565,7 +3583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>425390</v>
       </c>
@@ -3576,7 +3594,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>425391</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>425392</v>
       </c>
@@ -3598,7 +3616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>425393</v>
       </c>
@@ -3609,7 +3627,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>425394</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>425395</v>
       </c>
@@ -3644,12 +3662,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>47253</v>
       </c>
@@ -3657,7 +3675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>65038</v>
       </c>
@@ -3665,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>39883</v>
       </c>
@@ -3673,7 +3691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>18663</v>
       </c>
@@ -3681,7 +3699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>40068</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>69289</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>121214</v>
       </c>
@@ -3705,7 +3723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>53719</v>
       </c>
@@ -3713,7 +3731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>141889</v>
       </c>
@@ -3721,7 +3739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6229</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>38836</v>
       </c>
@@ -3737,7 +3755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>49704</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>40299</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>95073</v>
       </c>
@@ -3761,7 +3779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>56148</v>
       </c>
@@ -3769,7 +3787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>39527</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>39162</v>
       </c>
@@ -3785,7 +3803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>129468</v>
       </c>
@@ -3793,7 +3811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>118230</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>36847</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>5963</v>
       </c>
@@ -3817,7 +3835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>64240</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>41166</v>
       </c>
@@ -3846,13 +3864,13 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>114692</v>
       </c>
@@ -3860,7 +3878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>82226</v>
       </c>
@@ -3868,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>139483</v>
       </c>
@@ -3876,7 +3894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>49725</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>90274</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>45102</v>
       </c>
@@ -3900,7 +3918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>86712</v>
       </c>
@@ -3908,7 +3926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>72435</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5831</v>
       </c>
@@ -3924,7 +3942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7516</v>
       </c>
@@ -3932,7 +3950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>119491</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>70743</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>37499</v>
       </c>
@@ -3956,7 +3974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>55525</v>
       </c>
@@ -3964,7 +3982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>133922</v>
       </c>
@@ -3972,7 +3990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10362</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>120239</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>138643</v>
       </c>
@@ -3996,7 +4014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>36020</v>
       </c>
@@ -4004,7 +4022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>91289</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>81736</v>
       </c>
@@ -4020,7 +4038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>72506</v>
       </c>
@@ -4028,7 +4046,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>84325</v>
       </c>
@@ -4036,7 +4054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>48856</v>
       </c>
@@ -4044,7 +4062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>93110</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>110697</v>
       </c>
@@ -4073,13 +4091,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>223</v>
       </c>
@@ -4090,7 +4108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1198</v>
       </c>
@@ -4101,7 +4119,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>594</v>
       </c>
@@ -4112,7 +4130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>609</v>
       </c>
@@ -4123,7 +4141,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>178</v>
       </c>
@@ -4134,7 +4152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>579</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>278</v>
       </c>
@@ -4156,7 +4174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>875</v>
       </c>
@@ -4167,7 +4185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>973</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>114</v>
       </c>
@@ -4189,7 +4207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>589</v>
       </c>
@@ -4200,7 +4218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>893</v>
       </c>
@@ -4211,7 +4229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>869</v>
       </c>
@@ -4231,17 +4249,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6038BD-E98A-4EC9-82EE-E489CA9E309A}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>69872</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>40310</v>
       </c>
@@ -4257,7 +4275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>101407</v>
       </c>
@@ -4265,7 +4283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>113062</v>
       </c>
@@ -4273,7 +4291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>124472</v>
       </c>
@@ -4281,7 +4299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>129881</v>
       </c>
@@ -4289,7 +4307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>54511</v>
       </c>
@@ -4297,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>47264</v>
       </c>
@@ -4305,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>41815</v>
       </c>
@@ -4313,7 +4331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>47288</v>
       </c>
@@ -4321,7 +4339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>38739</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>109403</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>107749</v>
       </c>
@@ -4345,7 +4363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>129485</v>
       </c>
@@ -4353,7 +4371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>108087</v>
       </c>
@@ -4361,7 +4379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>134138</v>
       </c>
@@ -4369,7 +4387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>118668</v>
       </c>
@@ -4377,7 +4395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>107961</v>
       </c>
@@ -4385,7 +4403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>61462</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>95784</v>
       </c>
@@ -4401,7 +4419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>107102</v>
       </c>
@@ -4409,7 +4427,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>131402</v>
       </c>
@@ -4417,7 +4435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>108862</v>
       </c>
@@ -4425,7 +4443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>139514</v>
       </c>
@@ -4433,7 +4451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>55422</v>
       </c>
@@ -4441,7 +4459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>41401</v>
       </c>
@@ -4449,7 +4467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>54208</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>69830</v>
       </c>
@@ -4465,7 +4483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>74165</v>
       </c>
@@ -4473,7 +4491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>101580</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>35251</v>
       </c>
@@ -4489,7 +4507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>60164</v>
       </c>
@@ -4497,7 +4515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>38510</v>
       </c>
@@ -4505,7 +4523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>40734</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5963</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>78364</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>51915</v>
       </c>
@@ -4537,7 +4555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>50023</v>
       </c>
@@ -4545,7 +4563,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>40651</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>6229</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40406</v>
       </c>
@@ -4569,7 +4587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>106897</v>
       </c>
@@ -4577,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>78468</v>
       </c>
@@ -4585,7 +4603,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>128692</v>
       </c>
@@ -4593,7 +4611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>105241</v>
       </c>
@@ -4601,7 +4619,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>99453</v>
       </c>
@@ -4609,7 +4627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>79304</v>
       </c>
@@ -4617,7 +4635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>64250</v>
       </c>
@@ -4625,7 +4643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>96828</v>
       </c>
@@ -4633,7 +4651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>120351</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>51513</v>
       </c>
@@ -4649,7 +4667,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>69271</v>
       </c>
@@ -4657,7 +4675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>82883</v>
       </c>
@@ -4665,7 +4683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>117799</v>
       </c>
@@ -4673,7 +4691,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>113034</v>
       </c>
@@ -4681,7 +4699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>61569</v>
       </c>
@@ -4689,7 +4707,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>106236</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>100772</v>
       </c>
@@ -4705,7 +4723,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>124198</v>
       </c>
@@ -4713,7 +4731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>103221</v>
       </c>
@@ -4721,7 +4739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>70291</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>99523</v>
       </c>
@@ -4737,7 +4755,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>120827</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>107737</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>82678</v>
       </c>
@@ -4761,7 +4779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>105337</v>
       </c>
@@ -4769,7 +4787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>108189</v>
       </c>
@@ -4777,7 +4795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>107672</v>
       </c>
@@ -4785,7 +4803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>134303</v>
       </c>
@@ -4793,7 +4811,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>124566</v>
       </c>
@@ -4801,7 +4819,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>106123</v>
       </c>
@@ -4809,7 +4827,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>129660</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>119893</v>
       </c>
@@ -4825,7 +4843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>87140</v>
       </c>
@@ -4833,7 +4851,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>118803</v>
       </c>
@@ -4841,7 +4859,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>119761</v>
       </c>
@@ -4849,7 +4867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>120007</v>
       </c>
